--- a/donebestand.xlsx
+++ b/donebestand.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\Project-jaar-2-periode-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>AENC</t>
   </si>
@@ -108,12 +108,15 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -202,12 +205,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -516,68 +550,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D31"/>
+  <dimension ref="C11:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
@@ -586,121 +571,205 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
